--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="135">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -837,10 +837,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -983,10 +979,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特殊一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>默认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1003,11 +995,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特殊一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊一</t>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1122,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1150,6 +1142,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1555,7 +1550,7 @@
         <v>48</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>46</v>
@@ -1564,7 +1559,7 @@
         <v>30</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>4</v>
@@ -1587,22 +1582,22 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -1685,7 +1680,7 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M5" sqref="M5:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1774,7 +1769,7 @@
         <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>81</v>
@@ -1789,7 +1784,7 @@
         <v>81</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>81</v>
@@ -1816,7 +1811,7 @@
         <v>67</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>67</v>
@@ -1884,7 +1879,7 @@
         <v>88</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>89</v>
@@ -1904,135 +1899,135 @@
         <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>93</v>
+      <c r="B5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2108,67 +2103,67 @@
         <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="R7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2176,67 +2171,67 @@
         <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2244,67 +2239,67 @@
         <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2312,67 +2307,67 @@
         <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="R10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2380,67 +2375,67 @@
         <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2448,67 +2443,67 @@
         <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2516,67 +2511,67 @@
         <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2584,67 +2579,67 @@
         <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2652,67 +2647,67 @@
         <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2819,7 @@
         <v>48</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>46</v>
@@ -2833,7 +2828,7 @@
         <v>30</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>4</v>
@@ -2859,19 +2854,19 @@
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -2926,7 +2921,7 @@
         <v>35</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="7">
         <v>0</v>
@@ -2953,28 +2948,28 @@
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>10</v>
@@ -3047,16 +3042,16 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>6</v>
@@ -3180,7 +3175,7 @@
         <v>6</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>6</v>
@@ -3274,7 +3269,7 @@
         <v>6</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>6</v>
@@ -3368,7 +3363,7 @@
         <v>22</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>6</v>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,6 +185,37 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+文本框
+按钮
+下拉框
+单选框
+勾选框
+坐标--文本框</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -304,7 +335,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -462,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="118">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -528,24 +559,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7、选择全部的结构单元；
-8、点击“确认”按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、在定义材料许用值工作栏中，增加压缩曲线；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6、在定义材料许用值工作栏中，增加剪切曲线；
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、在定义材料许用值工作栏中，增加拉伸曲线；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>拉伸对应增加按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -562,7 +575,345 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>编辑材料许用值曲线</t>
+    <t>定义材料许用值查看按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值选择结构单元按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化级别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪切对应增加按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值确认按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值关闭按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果文本信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值信息类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个被测模块</t>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线名称文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第一横行X竖行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第一横行Y竖行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第二横行X竖行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第二横行Y竖行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第三横行X竖行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第三横行Y竖行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第四横行X竖行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第四横行Y竖行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--确认按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--关闭按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值关闭按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值-创建材料许用值按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择材料许用值曲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择材料许用值曲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；20；0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；20；0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；40；10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；40；4.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；20；2600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；20；5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；40；4500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；40；2600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；60；5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；60；3200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；80；10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；80；3200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；40；5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；10；第一行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；30；第二行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；50；第三行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作窗口标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个被测模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；20；4500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩对应增加按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪切对应增加按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、在定义材料许用值工作栏中，增加拉伸曲线、压缩和剪切；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -570,99 +921,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>定义材料许用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义材料许用值查看按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义材料许用值选择结构单元按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化级别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义材料许用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义材料许用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义材料许用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪切对应增加按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在选择材料许用值曲线弹窗中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义材料许用值确认按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义材料许用值关闭按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料许用值定义已完成!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料信息-&gt;定义复合材料参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作子窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果文本信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期值信息类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个被测模块</t>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
@@ -673,14 +937,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作控件后等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -689,18 +945,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>弹窗中输入文件名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>关闭弹窗按钮名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -709,297 +957,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>嵌套弹窗类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--曲线名称文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--曲线坐标文本框，第一横行X竖行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--曲线坐标文本框，第一横行Y竖行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--曲线坐标文本框，第二横行X竖行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--曲线坐标文本框，第二横行Y竖行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--曲线坐标文本框，第三横行X竖行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--曲线坐标文本框，第三横行Y竖行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--曲线坐标文本框，第四横行X竖行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--曲线坐标文本框，第四横行Y竖行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--确认按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值曲线--关闭按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标--文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值关闭按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值-创建材料许用值按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择材料许用值曲线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加许用值曲线</t>
-  </si>
-  <si>
-    <t>确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标--文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择材料许用值曲线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；20；4500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；20；0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；20；0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；20；0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；40；10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；40；4.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；40；10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；20；2600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；20；5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；40；4500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；40；2600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；60；5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；60；3200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；80；10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；80；3200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；40；5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150；10；第一行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150；30；第二行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150；50；第三行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标--套件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果等到时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个被测模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口二</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1063,7 +1025,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1099,17 +1061,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1134,9 +1085,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1146,6 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1450,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1461,13 +1410,13 @@
     <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
-    <col min="5" max="24" width="5.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="22.25" style="2" customWidth="1"/>
-    <col min="26" max="27" width="9" style="2"/>
-    <col min="31" max="31" width="9" style="2"/>
+    <col min="5" max="22" width="5.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.125" style="2" customWidth="1"/>
+    <col min="24" max="25" width="9" style="2"/>
+    <col min="29" max="29" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,94 +1427,91 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1576,28 +1522,28 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -1609,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>6</v>
@@ -1635,37 +1581,31 @@
       <c r="W2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Z2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" s="7">
+        <v>93</v>
+      </c>
+      <c r="AD2" s="7">
         <v>0</v>
       </c>
-      <c r="AF2" s="7"/>
+      <c r="AE2" s="7"/>
     </row>
-    <row r="3" spans="1:32" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:32" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:32" ht="13.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1677,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:V5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1689,350 +1629,335 @@
     <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="2" customWidth="1"/>
-    <col min="6" max="22" width="9" style="2"/>
+    <col min="6" max="21" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>42</v>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>67</v>
+    <row r="4" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>92</v>
+    <row r="5" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2094,635 +2019,606 @@
       <c r="U6" s="3">
         <v>0</v>
       </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="C1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2730,13 +2626,13 @@
     <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
-    <col min="5" max="24" width="5.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="22.25" style="2" customWidth="1"/>
-    <col min="26" max="27" width="9" style="2"/>
-    <col min="32" max="32" width="9" style="2"/>
+    <col min="5" max="22" width="5.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.125" style="2" customWidth="1"/>
+    <col min="24" max="25" width="9" style="2"/>
+    <col min="29" max="29" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2747,94 +2643,91 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2845,7 +2738,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2854,19 +2747,19 @@
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -2878,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>6</v>
@@ -2904,31 +2797,28 @@
       <c r="W2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Z2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE2" s="7">
+        <v>93</v>
+      </c>
+      <c r="AD2" s="7">
         <v>0</v>
       </c>
-      <c r="AF2" s="7"/>
+      <c r="AE2" s="7"/>
     </row>
-    <row r="3" spans="1:32" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2939,7 +2829,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -2948,28 +2838,28 @@
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>10</v>
@@ -2998,31 +2888,28 @@
       <c r="W3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Z3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE3" s="7">
+        <v>93</v>
+      </c>
+      <c r="AD3" s="7">
         <v>0</v>
       </c>
-      <c r="AF3" s="3"/>
+      <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3033,7 +2920,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -3042,16 +2929,16 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>6</v>
@@ -3092,36 +2979,33 @@
       <c r="W4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Z4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE4" s="7">
+        <v>93</v>
+      </c>
+      <c r="AD4" s="7">
         <v>0</v>
       </c>
-      <c r="AF4" s="3"/>
+      <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -3166,19 +3050,19 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>6</v>
@@ -3186,321 +3070,29 @@
       <c r="W5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Z5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="10"/>
     </row>
-    <row r="6" spans="1:32" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3"/>
-    </row>
-    <row r="7" spans="1:32" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3"/>
-    </row>
-    <row r="8" spans="1:32" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3"/>
-    </row>
-    <row r="9" spans="1:32" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:32" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:32" ht="13.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="114">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -710,10 +710,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>坐标--文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑材料许用值关闭按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -730,18 +726,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Button0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Button4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -782,10 +766,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>坐标--文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>选择材料许用值曲线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -798,70 +778,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>40；20；0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>40；40；10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>40；40；4.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；20；2600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；20；5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>180；40；4500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>180；40；2600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；60；5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；60；3200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；80；10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；80；3200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；40；5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>150；10；第一行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150；30；第二行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150；50；第三行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作窗口标题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -925,10 +853,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>坐标--文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>控件类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -962,6 +886,66 @@
   </si>
   <si>
     <t>嵌套弹窗关闭按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--单击--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；20；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；20；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；40；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；40；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；60；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；60；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；80；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；80；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；10；Button0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；30；Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；50；Button3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -969,7 +953,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,6 +995,14 @@
     <font>
       <sz val="11.3"/>
       <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1065,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1095,6 +1087,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1401,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1427,10 +1422,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>42</v>
@@ -1496,7 +1491,7 @@
         <v>30</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -1505,7 +1500,7 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>4</v>
@@ -1531,16 +1526,16 @@
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>6</v>
@@ -1595,7 +1590,7 @@
         <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
@@ -1619,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1635,10 +1630,10 @@
     <row r="1" spans="1:21" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>
@@ -1697,7 +1692,7 @@
     </row>
     <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>38</v>
@@ -1706,31 +1701,31 @@
         <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>40</v>
@@ -1762,7 +1757,7 @@
     </row>
     <row r="3" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -1774,55 +1769,55 @@
         <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1830,64 +1825,64 @@
         <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1895,69 +1890,69 @@
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2022,67 +2017,67 @@
     </row>
     <row r="7" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2090,129 +2085,129 @@
         <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2220,194 +2215,194 @@
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2415,194 +2410,194 @@
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +2613,7 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD2"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2643,10 +2638,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>42</v>
@@ -2685,10 +2680,10 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>21</v>
@@ -2712,7 +2707,7 @@
         <v>30</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -2721,7 +2716,7 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>4</v>
@@ -2738,7 +2733,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2746,20 +2741,20 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>81</v>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4500</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -2811,7 +2806,7 @@
         <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
@@ -2829,7 +2824,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -2837,29 +2832,29 @@
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>86</v>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3200</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>10</v>
@@ -2902,7 +2897,7 @@
         <v>23</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AD3" s="7">
         <v>0</v>
@@ -2920,7 +2915,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2928,17 +2923,17 @@
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>87</v>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5000</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>6</v>
@@ -2993,7 +2988,7 @@
         <v>23</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AD4" s="7">
         <v>0</v>
@@ -3005,7 +3000,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -3050,19 +3045,19 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>6</v>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="112">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -774,18 +774,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>40；20；0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；40；10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；40；4500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -821,10 +809,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>180；20；4500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -947,13 +931,42 @@
   <si>
     <t>150；50；Button3</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>材料信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定义复合材料参数</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1021,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1057,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1089,6 +1116,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1394,13 +1424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
@@ -1411,7 +1441,7 @@
     <col min="29" max="29" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="183.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,10 +1494,10 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>21</v>
@@ -1491,7 +1521,7 @@
         <v>30</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -1500,13 +1530,16 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" ht="79.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1525,20 +1558,20 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>72</v>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4500</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -1590,12 +1623,109 @@
         <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
       </c>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF2" s="7"/>
+    </row>
+    <row r="3" spans="1:32" ht="79.5" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1614,11 +1744,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
@@ -1627,7 +1757,7 @@
     <col min="6" max="21" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="126.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>55</v>
@@ -1690,9 +1820,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="39" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>38</v>
@@ -1701,31 +1831,31 @@
         <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>40</v>
@@ -1755,9 +1885,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -1769,28 +1899,28 @@
         <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>56</v>
@@ -1799,13 +1929,13 @@
         <v>57</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>58</v>
@@ -1820,139 +1950,139 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="39" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="39" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="39" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2015,9 +2145,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="39" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>62</v>
@@ -2068,7 +2198,7 @@
         <v>63</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>62</v>
@@ -2080,7 +2210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="39" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2133,7 +2263,7 @@
         <v>64</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>65</v>
@@ -2145,9 +2275,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="39" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
@@ -2198,7 +2328,7 @@
         <v>65</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>65</v>
@@ -2210,7 +2340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="39" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2263,7 +2393,7 @@
         <v>64</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>65</v>
@@ -2275,9 +2405,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="39" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>65</v>
@@ -2340,9 +2470,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="39" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>67</v>
@@ -2405,7 +2535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="39" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2470,9 +2600,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="39" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>65</v>
@@ -2535,9 +2665,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="39" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>65</v>
@@ -2610,13 +2740,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
@@ -2627,7 +2757,7 @@
     <col min="29" max="29" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="183.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2680,10 +2810,10 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>21</v>
@@ -2707,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -2716,13 +2846,16 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" ht="79.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2733,7 +2866,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2806,14 +2939,17 @@
         <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
       </c>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF2" s="7"/>
     </row>
-    <row r="3" spans="1:31" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" ht="79.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2824,7 +2960,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -2897,14 +3033,17 @@
         <v>23</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AD3" s="7">
         <v>0</v>
       </c>
-      <c r="AE3" s="3"/>
+      <c r="AE3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:31" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="79.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +3054,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2988,19 +3127,22 @@
         <v>23</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AD4" s="7">
         <v>0</v>
       </c>
-      <c r="AE4" s="3"/>
+      <c r="AE4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:31" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" ht="76.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -3045,19 +3187,19 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>6</v>
@@ -3082,7 +3224,10 @@
         <v>31</v>
       </c>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="10"/>
+      <c r="AE5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF5" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3102,10 +3247,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="J28" activeCellId="1" sqref="C42 J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,12 +294,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-路径弹窗
-增加许用值曲线</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +320,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-警告弹窗</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
@@ -493,7 +492,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="103">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -630,18 +629,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>控件文本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -742,14 +729,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>选择材料许用值曲线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -758,26 +737,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择材料许用值曲线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>默认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作窗口标题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -809,10 +772,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>选择结构单元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -846,30 +805,6 @@
   </si>
   <si>
     <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -960,6 +895,34 @@
       </rPr>
       <t>定义复合材料参数</t>
     </r>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择材料许用值曲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1084,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1119,6 +1082,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -1452,52 +1418,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>21</v>
@@ -1521,7 +1487,7 @@
         <v>30</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -1530,10 +1496,10 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>4</v>
@@ -1571,7 +1537,7 @@
         <v>4500</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -1614,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>27</v>
@@ -1623,13 +1589,13 @@
         <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AF2" s="7"/>
     </row>
@@ -1708,7 +1674,7 @@
         <v>9</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>27</v>
@@ -1717,13 +1683,13 @@
         <v>23</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AD3" s="7">
         <v>0</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AF3" s="3"/>
     </row>
@@ -1742,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="O2" sqref="O2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1760,43 +1726,43 @@
     <row r="1" spans="1:21" ht="126.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>16</v>
@@ -1822,132 +1788,132 @@
     </row>
     <row r="2" spans="1:21" ht="39" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="39" customHeight="1">
@@ -1955,64 +1921,64 @@
         <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="39" customHeight="1">
@@ -2020,69 +1986,69 @@
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="39" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2145,589 +2111,264 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="39" customHeight="1">
+    <row r="7" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="39" customHeight="1">
+    <row r="8" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>65</v>
+        <v>98</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="39" customHeight="1">
+    <row r="9" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>65</v>
+        <v>99</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="39" customHeight="1">
+    <row r="10" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="39" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="39" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="39" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="39" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="39" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>65</v>
+        <v>100</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2742,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -2768,52 +2409,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>21</v>
@@ -2837,7 +2478,7 @@
         <v>30</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -2846,10 +2487,10 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>4</v>
@@ -2866,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2887,7 +2528,7 @@
         <v>4500</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -2930,7 +2571,7 @@
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>27</v>
@@ -2939,13 +2580,13 @@
         <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AF2" s="7"/>
     </row>
@@ -2960,7 +2601,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -3024,7 +2665,7 @@
         <v>9</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>27</v>
@@ -3033,13 +2674,13 @@
         <v>23</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AD3" s="7">
         <v>0</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AF3" s="3"/>
     </row>
@@ -3054,7 +2695,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -3118,7 +2759,7 @@
         <v>9</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA4" s="7" t="s">
         <v>27</v>
@@ -3127,13 +2768,13 @@
         <v>23</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AD4" s="7">
         <v>0</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AF4" s="3"/>
     </row>
@@ -3142,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -3187,19 +2828,19 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>6</v>
@@ -3212,7 +2853,7 @@
         <v>9</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>19</v>
@@ -3225,7 +2866,7 @@
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AF5" s="10"/>
     </row>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
     <sheet name="控件属性已经操作方法" sheetId="6" r:id="rId2"/>
-    <sheet name="其他" sheetId="4" r:id="rId3"/>
-    <sheet name="软件路径设置弹窗" sheetId="5" r:id="rId4"/>
+    <sheet name="测试一" sheetId="7" r:id="rId3"/>
+    <sheet name="其他" sheetId="4" r:id="rId4"/>
+    <sheet name="软件路径设置弹窗" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -491,8 +492,171 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+警告弹窗
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块
+整个被测模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="104">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -922,6 +1086,32 @@
   </si>
   <si>
     <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>材料信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定义复合材料参数</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1085,6 +1275,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -1463,7 +1656,7 @@
         <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>21</v>
@@ -1516,7 +1709,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -1594,104 +1787,10 @@
       <c r="AD2" s="7">
         <v>0</v>
       </c>
-      <c r="AE2" s="12" t="s">
-        <v>95</v>
+      <c r="AE2" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="AF2" s="7"/>
-    </row>
-    <row r="3" spans="1:32" ht="79.5" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I3" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K3" s="3">
-        <v>5</v>
-      </c>
-      <c r="L3" s="3">
-        <v>3200</v>
-      </c>
-      <c r="M3" s="3">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1711,7 +1810,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:R2"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2383,8 +2482,502 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="183.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="79.5" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF2" s="7"/>
+    </row>
+    <row r="3" spans="1:32" ht="79.5" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF3" s="3"/>
+    </row>
+    <row r="4" spans="1:32" ht="79.5" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF4" s="3"/>
+    </row>
+    <row r="5" spans="1:32" ht="76.5" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF5" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -2883,7 +3476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -176,6 +176,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="AG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际值如果需要从控件中获取
+检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -563,6 +579,23 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>实际值如果需要从控件中获取
+检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例
+例子：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>作者:</t>
         </r>
         <r>
@@ -581,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +689,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="113">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1112,6 +1145,42 @@
       </rPr>
       <t>定义复合材料参数</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作窗口标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值；定义材料许用值；Edit1；方式一；窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值；定义材料许用值；Edit1；方式一；窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1189,12 +1258,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1237,7 +1312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1278,6 +1353,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -1598,9 +1682,10 @@
     <col min="23" max="23" width="13.125" style="2" customWidth="1"/>
     <col min="24" max="25" width="9" style="2"/>
     <col min="29" max="29" width="9" style="2"/>
+    <col min="33" max="33" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="183.75" customHeight="1">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>22</v>
@@ -1692,13 +1777,16 @@
         <v>75</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AG1" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="79.5" customHeight="1">
+    <row r="2" spans="1:33" ht="79.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1709,28 +1797,28 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I2" s="3">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3">
-        <v>4500</v>
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -1742,13 +1830,13 @@
         <v>6</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>6</v>
@@ -1768,7 +1856,9 @@
       <c r="W2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="Y2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1776,21 +1866,45 @@
         <v>34</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="7">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="3">
         <v>0</v>
       </c>
-      <c r="AE2" s="14" t="s">
-        <v>103</v>
+      <c r="AE2" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="AF2" s="7"/>
+      <c r="AG2" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AG9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1810,7 +1924,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2483,7 +2597,7 @@
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:XFD2"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2974,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD5"/>
+      <selection activeCell="C1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -2988,10 +3102,11 @@
     <col min="5" max="22" width="5.75" style="2" customWidth="1"/>
     <col min="23" max="23" width="13.125" style="2" customWidth="1"/>
     <col min="24" max="25" width="9" style="2"/>
-    <col min="29" max="29" width="9" style="2"/>
+    <col min="26" max="26" width="9" style="17"/>
+    <col min="30" max="30" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="183.75" customHeight="1">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3067,29 +3182,32 @@
       <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="79.5" customHeight="1">
+    <row r="2" spans="1:33" ht="79.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3163,27 +3281,30 @@
       <c r="Y2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="AB2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AE2" s="7">
         <v>0</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:32" ht="79.5" customHeight="1">
+    <row r="3" spans="1:33" ht="79.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3257,27 +3378,28 @@
       <c r="Y3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AE3" s="7">
         <v>0</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="79.5" customHeight="1">
+    <row r="4" spans="1:33" ht="79.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3351,27 +3473,28 @@
       <c r="Y4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AB4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AC4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AD4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AE4" s="7">
         <v>0</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AF4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="76.5" customHeight="1">
+    <row r="5" spans="1:33" ht="76.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3445,23 +3568,38 @@
       <c r="Y5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="AC5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="12" t="s">
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+    </row>
+    <row r="6" spans="1:33" ht="69.75" customHeight="1">
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" ht="69.75" customHeight="1">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" ht="69.75" customHeight="1">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" ht="69.75" customHeight="1">
+      <c r="Z9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -176,22 +176,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>实际值如果需要从控件中获取
-检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -504,6 +488,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="AF1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际值如果需要从控件中获取
+检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -684,12 +684,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="AG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际值如果需要从控件中获取
+检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="114">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1177,6 +1193,10 @@
   </si>
   <si>
     <t>定义材料许用值；定义材料许用值；Edit1；方式一；窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件检查</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1667,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -1682,7 +1702,6 @@
     <col min="23" max="23" width="13.125" style="2" customWidth="1"/>
     <col min="24" max="25" width="9" style="2"/>
     <col min="29" max="29" width="9" style="2"/>
-    <col min="33" max="33" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
@@ -1779,11 +1798,8 @@
       <c r="AE1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="79.5" customHeight="1">
@@ -1857,13 +1873,13 @@
         <v>6</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>19</v>
@@ -1880,31 +1896,7 @@
       <c r="AE2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AG6" s="3"/>
-    </row>
-    <row r="7" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AG9" s="3"/>
+      <c r="AG2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2594,15 +2586,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="32" max="32" width="9" style="17"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="183.75" customHeight="1">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2696,11 +2691,14 @@
       <c r="AE1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="79.5" customHeight="1">
+    <row r="2" spans="1:33" ht="79.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2792,9 +2790,12 @@
       <c r="AE2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AF2" s="7"/>
+      <c r="AF2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:32" ht="79.5" customHeight="1">
+    <row r="3" spans="1:33" ht="79.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2887,8 +2888,9 @@
         <v>95</v>
       </c>
       <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="79.5" customHeight="1">
+    <row r="4" spans="1:33" ht="79.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2981,8 +2983,9 @@
         <v>95</v>
       </c>
       <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="76.5" customHeight="1">
+    <row r="5" spans="1:33" ht="76.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3075,20 @@
       <c r="AE5" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AF5" s="10"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="10"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="AF6" s="3"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="AF7" s="3"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="AF9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3088,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD2"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -3104,9 +3120,10 @@
     <col min="24" max="25" width="9" style="2"/>
     <col min="26" max="26" width="9" style="17"/>
     <col min="30" max="30" width="9" style="2"/>
+    <col min="33" max="33" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="183.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3203,11 +3220,14 @@
       <c r="AF1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="79.5" customHeight="1">
+    <row r="2" spans="1:34" ht="79.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3302,9 +3322,12 @@
       <c r="AF2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="7"/>
+      <c r="AG2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH2" s="7"/>
     </row>
-    <row r="3" spans="1:33" ht="79.5" customHeight="1">
+    <row r="3" spans="1:34" ht="79.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3398,8 +3421,9 @@
         <v>95</v>
       </c>
       <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:33" ht="79.5" customHeight="1">
+    <row r="4" spans="1:34" ht="79.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3493,8 +3517,9 @@
         <v>95</v>
       </c>
       <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:33" ht="76.5" customHeight="1">
+    <row r="5" spans="1:34" ht="76.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3587,19 +3612,24 @@
       <c r="AF5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" s="10"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="10"/>
     </row>
-    <row r="6" spans="1:33" ht="69.75" customHeight="1">
+    <row r="6" spans="1:34" ht="69.75" customHeight="1">
       <c r="Z6" s="3"/>
+      <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="1:33" ht="69.75" customHeight="1">
+    <row r="7" spans="1:34" ht="69.75" customHeight="1">
       <c r="Z7" s="3"/>
+      <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="1:33" ht="69.75" customHeight="1">
+    <row r="8" spans="1:34" ht="69.75" customHeight="1">
       <c r="Z8" s="3"/>
+      <c r="AG8" s="3"/>
     </row>
-    <row r="9" spans="1:33" ht="69.75" customHeight="1">
+    <row r="9" spans="1:34" ht="69.75" customHeight="1">
       <c r="Z9" s="3"/>
+      <c r="AG9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3618,7 +3648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J28" activeCellId="1" sqref="C42 J28"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
-    <sheet name="控件属性已经操作方法" sheetId="6" r:id="rId2"/>
-    <sheet name="测试一" sheetId="7" r:id="rId3"/>
+    <sheet name="测试一" sheetId="7" r:id="rId2"/>
+    <sheet name="控件属性已经操作方法" sheetId="6" r:id="rId3"/>
     <sheet name="其他" sheetId="4" r:id="rId4"/>
     <sheet name="软件路径设置弹窗" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -173,6 +173,22 @@
           </rPr>
           <t>在执行每条用例前都会需要初始化模块
 整个被测模块</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际值如果需要从控件中获取
+检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例</t>
         </r>
       </text>
     </comment>
@@ -186,7 +202,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,16 +224,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-文本框
-按钮
-下拉框
-单选框
-勾选框
-坐标--文本框</t>
+用于对比文本信息</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,13 +250,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
-方式二：
-self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
+用例执行状态
+执行
+不执行</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,13 +278,14 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,11 +307,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-路径弹窗</t>
+在被测模块可能有嵌套窗口</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +333,41 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-路径弹窗</t>
+警告弹窗
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块
+整个被测模块</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际值如果需要从控件中获取
+检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例</t>
         </r>
       </text>
     </comment>
@@ -335,7 +381,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,11 +403,16 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用于对比文本信息</t>
+文本框
+按钮
+下拉框
+单选框
+勾选框
+坐标--文本框</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -383,13 +434,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用例执行状态
-执行
-不执行</t>
+方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
+方式二：
+self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -411,14 +462,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-预期值展示类型
-弹窗警告
-信息窗口
-控件文本</t>
+通用
+特殊一
+特殊二</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,11 +490,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-在被测模块可能有嵌套窗口</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,41 +516,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-警告弹窗
-信息窗口
-控件文本</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在执行每条用例前都会需要初始化模块
-整个被测模块</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>实际值如果需要从控件中获取
-检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
@@ -579,23 +595,6 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>实际值如果需要从控件中获取
-检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例
-例子：</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
           <t>作者:</t>
         </r>
         <r>
@@ -614,6 +613,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -636,7 +661,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-在被测模块可能有嵌套窗口</t>
+警告弹窗
+信息窗口
+控件文本</t>
         </r>
       </text>
     </comment>
@@ -651,40 +678,12 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-警告弹窗
-信息窗口
-控件文本</t>
+          <t>在执行每条用例前都会需要初始化模块
+整个被测模块</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在执行每条用例前都会需要初始化模块
-整个被测模块</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +704,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="115">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1168,22 +1167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>操作子窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义材料许用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>定义材料许用值；定义材料许用值；Edit1；方式一；窗口一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1192,15 +1175,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>定义材料许用值；定义材料许用值；Edit1；方式一；窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts(1)</t>
+    <t>预期值信息类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值；编辑材料许用值曲线弹窗；GridWindow][wxWindowNR；方式二；窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息窗口；警告弹窗；控件截图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料许用值曲线已删除！；；src\testCase\d_useCase_screenshot\ActualScreenshots\实际材料许用值曲线表截图.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1687,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -1702,6 +1705,7 @@
     <col min="23" max="23" width="13.125" style="2" customWidth="1"/>
     <col min="24" max="25" width="9" style="2"/>
     <col min="29" max="29" width="9" style="2"/>
+    <col min="32" max="32" width="22.875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
@@ -1757,7 +1761,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>24</v>
@@ -1781,13 +1785,13 @@
         <v>3</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>22</v>
@@ -1796,13 +1800,16 @@
         <v>75</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="79.5" customHeight="1">
+    <row r="2" spans="1:33" ht="186" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1813,28 +1820,28 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4500</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -1852,7 +1859,7 @@
         <v>6</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>6</v>
@@ -1873,30 +1880,54 @@
         <v>6</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AA2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="AG2" s="7"/>
+    </row>
+    <row r="3" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1913,679 +1944,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="2" customWidth="1"/>
-    <col min="6" max="21" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="126.75" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="39" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="39" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="39" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="39" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="39" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2791,7 +2149,7 @@
         <v>103</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AG2" s="7"/>
     </row>
@@ -3102,12 +2460,685 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="2" customWidth="1"/>
+    <col min="6" max="21" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="126.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="39" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="39" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="39" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="39" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="39" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -3118,12 +3149,11 @@
     <col min="5" max="22" width="5.75" style="2" customWidth="1"/>
     <col min="23" max="23" width="13.125" style="2" customWidth="1"/>
     <col min="24" max="25" width="9" style="2"/>
-    <col min="26" max="26" width="9" style="17"/>
-    <col min="30" max="30" width="9" style="2"/>
-    <col min="33" max="33" width="9" style="17"/>
+    <col min="29" max="29" width="9" style="2"/>
+    <col min="32" max="32" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="183.75" customHeight="1">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3199,35 +3229,32 @@
       <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="79.5" customHeight="1">
+    <row r="2" spans="1:33" ht="150.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3301,33 +3328,30 @@
       <c r="Y2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="AC2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH2" s="7"/>
+      <c r="AF2" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:34" ht="79.5" customHeight="1">
+    <row r="3" spans="1:33" ht="79.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3401,29 +3425,28 @@
       <c r="Y3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="AA3" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="AB3" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AD3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>95</v>
       </c>
+      <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:34" ht="79.5" customHeight="1">
+    <row r="4" spans="1:33" ht="79.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3497,29 +3520,28 @@
       <c r="Y4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="AA4" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="AB4" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="12" t="s">
         <v>95</v>
       </c>
+      <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:34" ht="76.5" customHeight="1">
+    <row r="5" spans="1:33" ht="76.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3593,43 +3615,38 @@
       <c r="Y5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="10"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="10"/>
     </row>
-    <row r="6" spans="1:34" ht="69.75" customHeight="1">
-      <c r="Z6" s="3"/>
-      <c r="AG6" s="3"/>
+    <row r="6" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:34" ht="69.75" customHeight="1">
-      <c r="Z7" s="3"/>
-      <c r="AG7" s="3"/>
+    <row r="7" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:34" ht="69.75" customHeight="1">
-      <c r="Z8" s="3"/>
-      <c r="AG8" s="3"/>
+    <row r="8" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:34" ht="69.75" customHeight="1">
-      <c r="Z9" s="3"/>
-      <c r="AG9" s="3"/>
+    <row r="9" spans="1:33" ht="69.75" customHeight="1">
+      <c r="AF9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3648,7 +3665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" activeCellId="1" sqref="C42 J28"/>
     </sheetView>
   </sheetViews>
@@ -3656,5 +3673,6 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="116">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -838,10 +838,6 @@
   </si>
   <si>
     <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件文本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1204,6 +1200,14 @@
   </si>
   <si>
     <t>材料许用值曲线已删除！；；src\testCase\d_useCase_screenshot\ActualScreenshots\实际材料许用值曲线表截图.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息窗口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1719,43 +1723,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
@@ -1785,10 +1789,10 @@
         <v>3</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -1797,13 +1801,13 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>4</v>
@@ -1820,7 +1824,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -1841,7 +1845,7 @@
         <v>4500</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -1880,31 +1884,31 @@
         <v>6</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG2" s="7"/>
     </row>
@@ -1946,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1966,49 +1970,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>24</v>
@@ -2035,7 +2039,7 @@
         <v>30</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -2044,13 +2048,13 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>4</v>
@@ -2067,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2088,7 +2092,7 @@
         <v>4500</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -2131,25 +2135,25 @@
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="7"/>
     </row>
@@ -2164,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -2228,7 +2232,7 @@
         <v>9</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>27</v>
@@ -2237,15 +2241,17 @@
         <v>23</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD3" s="7">
         <v>0</v>
       </c>
       <c r="AE3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF3" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" ht="79.5" customHeight="1">
@@ -2259,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2323,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="AA4" s="7" t="s">
         <v>27</v>
@@ -2332,15 +2338,17 @@
         <v>23</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="7">
         <v>0</v>
       </c>
       <c r="AE4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF4" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:33" ht="76.5" customHeight="1">
@@ -2348,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -2393,13 +2401,13 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>18</v>
@@ -2418,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>19</v>
@@ -2431,7 +2439,7 @@
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="10"/>
@@ -2480,43 +2488,43 @@
     <row r="1" spans="1:21" ht="126.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>16</v>
@@ -2542,132 +2550,132 @@
     </row>
     <row r="2" spans="1:21" ht="39" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="M3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="39" customHeight="1">
@@ -2675,64 +2683,64 @@
         <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="39" customHeight="1">
@@ -2740,69 +2748,69 @@
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="39" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2867,262 +2875,262 @@
     </row>
     <row r="7" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="T7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="U7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +3146,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="Z2" sqref="Z2:Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
@@ -3164,52 +3172,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>21</v>
@@ -3233,7 +3241,7 @@
         <v>30</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -3242,13 +3250,13 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>4</v>
@@ -3265,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -3286,7 +3294,7 @@
         <v>4500</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -3329,25 +3337,25 @@
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="AA2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="AC2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="7"/>
     </row>
@@ -3362,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -3426,7 +3434,7 @@
         <v>9</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>27</v>
@@ -3435,13 +3443,13 @@
         <v>23</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD3" s="7">
         <v>0</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -3457,7 +3465,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -3521,7 +3529,7 @@
         <v>9</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="AA4" s="7" t="s">
         <v>27</v>
@@ -3530,13 +3538,13 @@
         <v>23</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="7">
         <v>0</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -3546,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -3591,19 +3599,19 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>6</v>
@@ -3616,7 +3624,7 @@
         <v>9</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>19</v>
@@ -3631,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="10"/>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -462,9 +462,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -530,7 +530,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -613,7 +613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -639,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -667,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="116">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -834,10 +834,6 @@
   </si>
   <si>
     <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所操作实例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1208,6 +1204,10 @@
   </si>
   <si>
     <t>信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1339,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1389,6 +1389,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1723,43 +1726,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
@@ -1789,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -1801,13 +1804,13 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>4</v>
@@ -1824,7 +1827,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -1845,7 +1848,7 @@
         <v>4500</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -1884,31 +1887,31 @@
         <v>6</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG2" s="7"/>
     </row>
@@ -1970,49 +1973,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>24</v>
@@ -2039,7 +2042,7 @@
         <v>30</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>28</v>
@@ -2048,13 +2051,13 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>4</v>
@@ -2071,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2092,7 +2095,7 @@
         <v>4500</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
@@ -2135,25 +2138,25 @@
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="7"/>
     </row>
@@ -2168,7 +2171,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -2232,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>27</v>
@@ -2241,16 +2244,16 @@
         <v>23</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="7">
         <v>0</v>
       </c>
       <c r="AE3" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="3"/>
     </row>
@@ -2265,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2329,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA4" s="7" t="s">
         <v>27</v>
@@ -2338,16 +2341,16 @@
         <v>23</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD4" s="7">
         <v>0</v>
       </c>
       <c r="AE4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF4" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG4" s="3"/>
     </row>
@@ -2356,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -2401,13 +2404,13 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>18</v>
@@ -2426,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>19</v>
@@ -2439,7 +2442,7 @@
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="10"/>
@@ -2472,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2488,43 +2491,43 @@
     <row r="1" spans="1:21" ht="126.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>16</v>
@@ -2550,132 +2553,132 @@
     </row>
     <row r="2" spans="1:21" ht="39" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="M3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="39" customHeight="1">
@@ -2683,134 +2686,134 @@
         <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="39" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
+      <c r="A5" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="39" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2875,262 +2878,262 @@
     </row>
     <row r="7" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="T7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="U7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3143,25 +3146,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
-    <col min="5" max="22" width="5.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13.125" style="2" customWidth="1"/>
-    <col min="24" max="25" width="9" style="2"/>
-    <col min="29" max="29" width="9" style="2"/>
-    <col min="32" max="32" width="9" style="17"/>
+    <col min="3" max="5" width="9" style="2"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="12" max="12" width="9" style="17"/>
+    <col min="13" max="13" width="9.5" style="2" customWidth="1"/>
+    <col min="14" max="31" width="5.75" style="2" customWidth="1"/>
+    <col min="32" max="32" width="13.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="183.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3172,97 +3174,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" ht="150.75" customHeight="1">
+    <row r="2" spans="1:32" ht="150.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3272,94 +3271,93 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
         <v>4500</v>
       </c>
-      <c r="I2" s="3">
+      <c r="R2" s="3">
         <v>10</v>
       </c>
-      <c r="J2" s="3">
+      <c r="S2" s="3">
         <v>4500</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG2" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" ht="79.5" customHeight="1">
+    <row r="3" spans="1:32" ht="79.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3369,92 +3367,91 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>2600</v>
       </c>
-      <c r="I3" s="3">
+      <c r="R3" s="3">
         <v>4.8</v>
       </c>
-      <c r="J3" s="3">
+      <c r="S3" s="3">
         <v>2600</v>
       </c>
-      <c r="K3" s="3">
+      <c r="T3" s="3">
         <v>5</v>
       </c>
-      <c r="L3" s="3">
+      <c r="U3" s="3">
         <v>3200</v>
       </c>
-      <c r="M3" s="3">
+      <c r="V3" s="3">
         <v>10</v>
       </c>
-      <c r="N3" s="3">
+      <c r="W3" s="3">
         <v>3200</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="3"/>
       <c r="Y3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" ht="79.5" customHeight="1">
+    <row r="4" spans="1:32" ht="79.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3464,128 +3461,123 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>5000</v>
       </c>
-      <c r="I4" s="3">
+      <c r="R4" s="3">
         <v>10</v>
       </c>
-      <c r="J4" s="3">
+      <c r="S4" s="3">
         <v>5000</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="T4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="3"/>
       <c r="Y4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" ht="76.5" customHeight="1">
+    <row r="5" spans="1:32" ht="76.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3599,67 +3591,70 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="10"/>
+      <c r="AD5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AF6" s="3"/>
+    <row r="6" spans="1:32" ht="69.75" customHeight="1">
+      <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AF7" s="3"/>
+    <row r="7" spans="1:32" ht="69.75" customHeight="1">
+      <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AF8" s="3"/>
+    <row r="8" spans="1:32" ht="69.75" customHeight="1">
+      <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:33" ht="69.75" customHeight="1">
-      <c r="AF9" s="3"/>
+    <row r="9" spans="1:32" ht="69.75" customHeight="1">
+      <c r="L9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义许用值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -202,7 +202,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="116">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1285,7 +1285,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1295,6 +1295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1368,7 +1374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1392,6 +1397,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,7 +1723,7 @@
     <col min="23" max="23" width="13.125" style="2" customWidth="1"/>
     <col min="24" max="25" width="9" style="2"/>
     <col min="29" max="29" width="9" style="2"/>
-    <col min="32" max="32" width="22.875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="22.875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
@@ -1809,7 +1820,7 @@
       <c r="AE1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="14" t="s">
         <v>102</v>
       </c>
       <c r="AG1" s="1" t="s">
@@ -1907,10 +1918,10 @@
       <c r="AD2" s="7">
         <v>0</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="15" t="s">
         <v>110</v>
       </c>
       <c r="AG2" s="7"/>
@@ -1951,119 +1962,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="32" max="32" width="9" style="17"/>
+    <col min="12" max="12" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="183.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" ht="79.5" customHeight="1">
+    <row r="2" spans="1:32" ht="79.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2073,94 +2081,93 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
         <v>4500</v>
       </c>
-      <c r="I2" s="3">
+      <c r="R2" s="3">
         <v>10</v>
       </c>
-      <c r="J2" s="3">
+      <c r="S2" s="3">
         <v>4500</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG2" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" ht="79.5" customHeight="1">
+    <row r="3" spans="1:32" ht="79.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2170,94 +2177,93 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>2600</v>
       </c>
-      <c r="I3" s="3">
+      <c r="R3" s="3">
         <v>4.8</v>
       </c>
-      <c r="J3" s="3">
+      <c r="S3" s="3">
         <v>2600</v>
       </c>
-      <c r="K3" s="3">
+      <c r="T3" s="3">
         <v>5</v>
       </c>
-      <c r="L3" s="3">
+      <c r="U3" s="3">
         <v>3200</v>
       </c>
-      <c r="M3" s="3">
+      <c r="V3" s="3">
         <v>10</v>
       </c>
-      <c r="N3" s="3">
+      <c r="W3" s="3">
         <v>3200</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="3"/>
       <c r="Y3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG3" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" ht="79.5" customHeight="1">
+    <row r="4" spans="1:32" ht="79.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2267,94 +2273,93 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>5000</v>
       </c>
-      <c r="I4" s="3">
+      <c r="R4" s="3">
         <v>10</v>
       </c>
-      <c r="J4" s="3">
+      <c r="S4" s="3">
         <v>5000</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="T4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="3"/>
       <c r="Y4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF4" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG4" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" ht="76.5" customHeight="1">
+    <row r="5" spans="1:32" ht="76.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2364,33 +2369,29 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2404,65 +2405,70 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="10"/>
+      <c r="AE5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
-      <c r="AF6" s="3"/>
+    <row r="6" spans="1:32">
+      <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:33">
-      <c r="AF7" s="3"/>
+    <row r="7" spans="1:32">
+      <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:33">
-      <c r="AF8" s="3"/>
+    <row r="8" spans="1:32">
+      <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:33">
-      <c r="AF9" s="3"/>
+    <row r="9" spans="1:32">
+      <c r="L9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2475,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2564,28 +2570,28 @@
       <c r="D2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -2747,7 +2753,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="39" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2876,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
+    <row r="7" spans="1:21" s="12" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
+    <row r="8" spans="1:21" s="12" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
+    <row r="9" spans="1:21" s="12" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="13" customFormat="1" ht="40.5" customHeight="1">
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -3157,7 +3163,7 @@
     <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
     <col min="3" max="5" width="9" style="2"/>
     <col min="9" max="9" width="9" style="2"/>
-    <col min="12" max="12" width="9" style="17"/>
+    <col min="12" max="12" width="9" style="16"/>
     <col min="13" max="13" width="9.5" style="2" customWidth="1"/>
     <col min="14" max="31" width="5.75" style="2" customWidth="1"/>
     <col min="32" max="32" width="13.125" style="2" customWidth="1"/>
@@ -3197,7 +3203,7 @@
       <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -3290,10 +3296,10 @@
       <c r="J2" s="7">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>103</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -3386,7 +3392,7 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>93</v>
       </c>
       <c r="L3" s="3"/>
@@ -3480,7 +3486,7 @@
       <c r="J4" s="7">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>93</v>
       </c>
       <c r="L4" s="3"/>
@@ -3574,7 +3580,7 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>93</v>
       </c>
       <c r="L5" s="3"/>
